--- a/REGULAR/OJT/MANALO, LAMBERTO.xlsx
+++ b/REGULAR/OJT/MANALO, LAMBERTO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\OLD FILES LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642C4C56-E9FF-4C48-BDED-A16C5646BC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3B2965-5B0C-4ADE-B462-364C2B39ED28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3567,7 +3567,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K549" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K549" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A8:K549" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3948,9 +3948,9 @@
   <dimension ref="A2:K549"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3408" topLeftCell="A514" activePane="bottomLeft"/>
+      <pane ySplit="3408" topLeftCell="A515" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C524" sqref="C524"/>
+      <selection pane="bottomLeft" activeCell="D526" sqref="D526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4109,7 +4109,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-47.563999999999851</v>
+        <v>32.711999999999932</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4119,7 +4119,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>123.625</v>
+        <v>136.83300000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11294,14 +11294,14 @@
         <v>276</v>
       </c>
       <c r="C290" s="13"/>
-      <c r="D290" s="39">
-        <v>3.2</v>
-      </c>
+      <c r="D290" s="39"/>
       <c r="E290" s="13">
         <f t="shared" si="4"/>
-        <v>-85.999000000000009</v>
-      </c>
-      <c r="F290" s="20"/>
+        <v>-82.799000000000007</v>
+      </c>
+      <c r="F290" s="39">
+        <v>3.2</v>
+      </c>
       <c r="G290" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11321,14 +11321,14 @@
       <c r="C291" s="13">
         <v>1.25</v>
       </c>
-      <c r="D291" s="39">
-        <v>5.2060000000000004</v>
-      </c>
+      <c r="D291" s="39"/>
       <c r="E291" s="13">
         <f t="shared" si="4"/>
-        <v>-89.955000000000013</v>
-      </c>
-      <c r="F291" s="20"/>
+        <v>-81.549000000000007</v>
+      </c>
+      <c r="F291" s="39">
+        <v>5.2060000000000004</v>
+      </c>
       <c r="G291" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11347,9 +11347,9 @@
       <c r="D292" s="39"/>
       <c r="E292" s="13">
         <f t="shared" si="4"/>
-        <v>-89.955000000000013</v>
-      </c>
-      <c r="F292" s="20"/>
+        <v>-81.549000000000007</v>
+      </c>
+      <c r="F292" s="39"/>
       <c r="G292" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11371,14 +11371,14 @@
       <c r="C293" s="13">
         <v>1.25</v>
       </c>
-      <c r="D293" s="39">
-        <v>3.6150000000000002</v>
-      </c>
+      <c r="D293" s="39"/>
       <c r="E293" s="13">
         <f t="shared" si="4"/>
-        <v>-92.320000000000007</v>
-      </c>
-      <c r="F293" s="20"/>
+        <v>-80.299000000000007</v>
+      </c>
+      <c r="F293" s="39">
+        <v>3.6150000000000002</v>
+      </c>
       <c r="G293" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11397,9 +11397,9 @@
       <c r="D294" s="39"/>
       <c r="E294" s="13">
         <f t="shared" si="4"/>
-        <v>-92.320000000000007</v>
-      </c>
-      <c r="F294" s="20"/>
+        <v>-80.299000000000007</v>
+      </c>
+      <c r="F294" s="39"/>
       <c r="G294" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11423,14 +11423,14 @@
       <c r="C295" s="13">
         <v>1.25</v>
       </c>
-      <c r="D295" s="39">
-        <v>3.1669999999999998</v>
-      </c>
+      <c r="D295" s="39"/>
       <c r="E295" s="13">
         <f t="shared" si="4"/>
-        <v>-94.237000000000009</v>
-      </c>
-      <c r="F295" s="20"/>
+        <v>-79.049000000000007</v>
+      </c>
+      <c r="F295" s="39">
+        <v>3.1669999999999998</v>
+      </c>
       <c r="G295" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11449,9 +11449,9 @@
       <c r="D296" s="39"/>
       <c r="E296" s="13">
         <f t="shared" si="4"/>
-        <v>-94.237000000000009</v>
-      </c>
-      <c r="F296" s="20"/>
+        <v>-79.049000000000007</v>
+      </c>
+      <c r="F296" s="39"/>
       <c r="G296" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11475,14 +11475,14 @@
       <c r="C297" s="13">
         <v>1.25</v>
       </c>
-      <c r="D297" s="39">
-        <v>1.167</v>
-      </c>
+      <c r="D297" s="39"/>
       <c r="E297" s="13">
         <f t="shared" si="4"/>
-        <v>-94.154000000000011</v>
-      </c>
-      <c r="F297" s="20"/>
+        <v>-77.799000000000007</v>
+      </c>
+      <c r="F297" s="39">
+        <v>1.167</v>
+      </c>
       <c r="G297" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11501,9 +11501,9 @@
       <c r="D298" s="39"/>
       <c r="E298" s="13">
         <f t="shared" si="4"/>
-        <v>-94.154000000000011</v>
-      </c>
-      <c r="F298" s="20"/>
+        <v>-77.799000000000007</v>
+      </c>
+      <c r="F298" s="39"/>
       <c r="G298" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11525,14 +11525,14 @@
       <c r="C299" s="13">
         <v>1.25</v>
       </c>
-      <c r="D299" s="39">
-        <v>2.448</v>
-      </c>
+      <c r="D299" s="39"/>
       <c r="E299" s="13">
         <f t="shared" si="4"/>
-        <v>-95.352000000000004</v>
-      </c>
-      <c r="F299" s="20"/>
+        <v>-76.549000000000007</v>
+      </c>
+      <c r="F299" s="39">
+        <v>2.448</v>
+      </c>
       <c r="G299" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11551,9 +11551,9 @@
       <c r="D300" s="39"/>
       <c r="E300" s="13">
         <f t="shared" si="4"/>
-        <v>-95.352000000000004</v>
-      </c>
-      <c r="F300" s="20"/>
+        <v>-76.549000000000007</v>
+      </c>
+      <c r="F300" s="39"/>
       <c r="G300" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11575,14 +11575,14 @@
       <c r="C301" s="13">
         <v>1.25</v>
       </c>
-      <c r="D301" s="39">
-        <v>2.9420000000000002</v>
-      </c>
+      <c r="D301" s="39"/>
       <c r="E301" s="13">
         <f t="shared" si="4"/>
-        <v>-97.044000000000011</v>
-      </c>
-      <c r="F301" s="20"/>
+        <v>-75.299000000000007</v>
+      </c>
+      <c r="F301" s="39">
+        <v>2.9420000000000002</v>
+      </c>
       <c r="G301" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11601,9 +11601,9 @@
       <c r="D302" s="39"/>
       <c r="E302" s="13">
         <f t="shared" si="4"/>
-        <v>-97.044000000000011</v>
-      </c>
-      <c r="F302" s="20"/>
+        <v>-75.299000000000007</v>
+      </c>
+      <c r="F302" s="39"/>
       <c r="G302" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11627,14 +11627,14 @@
       <c r="C303" s="13">
         <v>1.25</v>
       </c>
-      <c r="D303" s="39">
-        <v>4.0119999999999996</v>
-      </c>
+      <c r="D303" s="39"/>
       <c r="E303" s="13">
         <f t="shared" si="4"/>
-        <v>-99.806000000000012</v>
-      </c>
-      <c r="F303" s="20"/>
+        <v>-74.049000000000007</v>
+      </c>
+      <c r="F303" s="39">
+        <v>4.0119999999999996</v>
+      </c>
       <c r="G303" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11653,9 +11653,9 @@
       <c r="D304" s="39"/>
       <c r="E304" s="13">
         <f t="shared" si="4"/>
-        <v>-99.806000000000012</v>
-      </c>
-      <c r="F304" s="20"/>
+        <v>-74.049000000000007</v>
+      </c>
+      <c r="F304" s="39"/>
       <c r="G304" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11679,14 +11679,14 @@
       <c r="C305" s="13">
         <v>1.25</v>
       </c>
-      <c r="D305" s="39">
-        <v>2.1019999999999999</v>
-      </c>
+      <c r="D305" s="39"/>
       <c r="E305" s="13">
         <f t="shared" si="4"/>
-        <v>-100.65800000000002</v>
-      </c>
-      <c r="F305" s="20"/>
+        <v>-72.799000000000007</v>
+      </c>
+      <c r="F305" s="39">
+        <v>2.1019999999999999</v>
+      </c>
       <c r="G305" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11705,9 +11705,9 @@
       <c r="D306" s="39"/>
       <c r="E306" s="13">
         <f t="shared" si="4"/>
-        <v>-100.65800000000002</v>
-      </c>
-      <c r="F306" s="20"/>
+        <v>-72.799000000000007</v>
+      </c>
+      <c r="F306" s="39"/>
       <c r="G306" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11729,14 +11729,14 @@
       <c r="C307" s="13">
         <v>1.25</v>
       </c>
-      <c r="D307" s="39">
-        <v>0.308</v>
-      </c>
+      <c r="D307" s="39"/>
       <c r="E307" s="13">
         <f t="shared" si="4"/>
-        <v>-99.716000000000022</v>
-      </c>
-      <c r="F307" s="20"/>
+        <v>-71.549000000000007</v>
+      </c>
+      <c r="F307" s="39">
+        <v>0.308</v>
+      </c>
       <c r="G307" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11755,9 +11755,9 @@
       <c r="D308" s="39"/>
       <c r="E308" s="13">
         <f t="shared" si="4"/>
-        <v>-99.716000000000022</v>
-      </c>
-      <c r="F308" s="20"/>
+        <v>-71.549000000000007</v>
+      </c>
+      <c r="F308" s="39"/>
       <c r="G308" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11782,9 +11782,9 @@
       <c r="D309" s="39"/>
       <c r="E309" s="13">
         <f t="shared" si="4"/>
-        <v>-98.466000000000022</v>
-      </c>
-      <c r="F309" s="20"/>
+        <v>-70.299000000000007</v>
+      </c>
+      <c r="F309" s="39"/>
       <c r="G309" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11804,14 +11804,14 @@
         <v>286</v>
       </c>
       <c r="C310" s="13"/>
-      <c r="D310" s="39">
-        <v>2.702</v>
-      </c>
+      <c r="D310" s="39"/>
       <c r="E310" s="13">
         <f t="shared" si="4"/>
-        <v>-101.16800000000002</v>
-      </c>
-      <c r="F310" s="20"/>
+        <v>-70.299000000000007</v>
+      </c>
+      <c r="F310" s="39">
+        <v>2.702</v>
+      </c>
       <c r="G310" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11830,9 +11830,9 @@
       <c r="D311" s="39"/>
       <c r="E311" s="13">
         <f t="shared" si="4"/>
-        <v>-101.16800000000002</v>
-      </c>
-      <c r="F311" s="20"/>
+        <v>-70.299000000000007</v>
+      </c>
+      <c r="F311" s="39"/>
       <c r="G311" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11854,14 +11854,14 @@
       <c r="C312" s="13">
         <v>1.25</v>
       </c>
-      <c r="D312" s="39">
-        <v>1.577</v>
-      </c>
+      <c r="D312" s="39"/>
       <c r="E312" s="13">
         <f t="shared" si="4"/>
-        <v>-101.49500000000002</v>
-      </c>
-      <c r="F312" s="20"/>
+        <v>-69.049000000000007</v>
+      </c>
+      <c r="F312" s="39">
+        <v>1.577</v>
+      </c>
       <c r="G312" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11880,9 +11880,9 @@
       <c r="D313" s="39"/>
       <c r="E313" s="13">
         <f t="shared" si="4"/>
-        <v>-101.49500000000002</v>
-      </c>
-      <c r="F313" s="20"/>
+        <v>-69.049000000000007</v>
+      </c>
+      <c r="F313" s="39"/>
       <c r="G313" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11905,9 +11905,9 @@
       <c r="D314" s="39"/>
       <c r="E314" s="13">
         <f t="shared" si="4"/>
-        <v>-101.49500000000002</v>
-      </c>
-      <c r="F314" s="20"/>
+        <v>-69.049000000000007</v>
+      </c>
+      <c r="F314" s="39"/>
       <c r="G314" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11929,14 +11929,14 @@
       <c r="C315" s="13">
         <v>1.25</v>
       </c>
-      <c r="D315" s="39">
-        <v>2.637</v>
-      </c>
+      <c r="D315" s="39"/>
       <c r="E315" s="13">
         <f t="shared" si="4"/>
-        <v>-102.88200000000002</v>
-      </c>
-      <c r="F315" s="20"/>
+        <v>-67.799000000000007</v>
+      </c>
+      <c r="F315" s="39">
+        <v>2.637</v>
+      </c>
       <c r="G315" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11956,14 +11956,14 @@
       <c r="C316" s="13">
         <v>1.25</v>
       </c>
-      <c r="D316" s="39">
-        <v>0.14199999999999999</v>
-      </c>
+      <c r="D316" s="39"/>
       <c r="E316" s="13">
         <f t="shared" si="4"/>
-        <v>-101.77400000000002</v>
-      </c>
-      <c r="F316" s="20"/>
+        <v>-66.549000000000007</v>
+      </c>
+      <c r="F316" s="39">
+        <v>0.14199999999999999</v>
+      </c>
       <c r="G316" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11986,9 +11986,9 @@
       <c r="D317" s="39"/>
       <c r="E317" s="13">
         <f t="shared" si="4"/>
-        <v>-100.52400000000002</v>
-      </c>
-      <c r="F317" s="20"/>
+        <v>-65.299000000000007</v>
+      </c>
+      <c r="F317" s="39"/>
       <c r="G317" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12009,9 +12009,9 @@
       <c r="D318" s="39"/>
       <c r="E318" s="13">
         <f t="shared" si="4"/>
-        <v>-100.52400000000002</v>
-      </c>
-      <c r="F318" s="20"/>
+        <v>-65.299000000000007</v>
+      </c>
+      <c r="F318" s="39"/>
       <c r="G318" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -12029,14 +12029,14 @@
         <v>302</v>
       </c>
       <c r="C319" s="13"/>
-      <c r="D319" s="39">
-        <v>0.52100000000000002</v>
-      </c>
+      <c r="D319" s="39"/>
       <c r="E319" s="13">
         <f t="shared" si="4"/>
-        <v>-101.04500000000002</v>
-      </c>
-      <c r="F319" s="20"/>
+        <v>-65.299000000000007</v>
+      </c>
+      <c r="F319" s="39">
+        <v>0.52100000000000002</v>
+      </c>
       <c r="G319" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -12056,14 +12056,14 @@
       <c r="C320" s="13">
         <v>1.25</v>
       </c>
-      <c r="D320" s="39">
-        <v>1.044</v>
-      </c>
+      <c r="D320" s="39"/>
       <c r="E320" s="13">
         <f t="shared" si="4"/>
-        <v>-100.83900000000001</v>
-      </c>
-      <c r="F320" s="20"/>
+        <v>-64.049000000000007</v>
+      </c>
+      <c r="F320" s="39">
+        <v>1.044</v>
+      </c>
       <c r="G320" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12083,14 +12083,14 @@
       <c r="C321" s="13">
         <v>1.25</v>
       </c>
-      <c r="D321" s="39">
-        <v>0.68300000000000005</v>
-      </c>
+      <c r="D321" s="39"/>
       <c r="E321" s="13">
         <f t="shared" si="4"/>
-        <v>-100.27200000000002</v>
-      </c>
-      <c r="F321" s="20"/>
+        <v>-62.799000000000007</v>
+      </c>
+      <c r="F321" s="39">
+        <v>0.68300000000000005</v>
+      </c>
       <c r="G321" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12110,14 +12110,14 @@
       <c r="C322" s="13">
         <v>1.25</v>
       </c>
-      <c r="D322" s="39">
-        <v>1.7769999999999999</v>
-      </c>
+      <c r="D322" s="39"/>
       <c r="E322" s="13">
         <f t="shared" si="4"/>
-        <v>-100.79900000000002</v>
-      </c>
-      <c r="F322" s="20"/>
+        <v>-61.549000000000007</v>
+      </c>
+      <c r="F322" s="39">
+        <v>1.7769999999999999</v>
+      </c>
       <c r="G322" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12137,14 +12137,14 @@
       <c r="C323" s="13">
         <v>1.25</v>
       </c>
-      <c r="D323" s="39">
-        <v>1.6020000000000001</v>
-      </c>
+      <c r="D323" s="39"/>
       <c r="E323" s="13">
         <f t="shared" si="4"/>
-        <v>-101.15100000000002</v>
-      </c>
-      <c r="F323" s="20"/>
+        <v>-60.299000000000007</v>
+      </c>
+      <c r="F323" s="39">
+        <v>1.6020000000000001</v>
+      </c>
       <c r="G323" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12164,14 +12164,14 @@
       <c r="C324" s="13">
         <v>1.25</v>
       </c>
-      <c r="D324" s="39">
-        <v>1.298</v>
-      </c>
+      <c r="D324" s="39"/>
       <c r="E324" s="13">
         <f t="shared" si="4"/>
-        <v>-101.19900000000003</v>
-      </c>
-      <c r="F324" s="20"/>
+        <v>-59.049000000000007</v>
+      </c>
+      <c r="F324" s="39">
+        <v>1.298</v>
+      </c>
       <c r="G324" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12191,14 +12191,14 @@
       <c r="C325" s="13">
         <v>1.25</v>
       </c>
-      <c r="D325" s="39">
-        <v>2.7E-2</v>
-      </c>
+      <c r="D325" s="39"/>
       <c r="E325" s="13">
         <f t="shared" si="4"/>
-        <v>-99.976000000000028</v>
-      </c>
-      <c r="F325" s="20"/>
+        <v>-57.799000000000007</v>
+      </c>
+      <c r="F325" s="39">
+        <v>2.7E-2</v>
+      </c>
       <c r="G325" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12218,14 +12218,14 @@
       <c r="C326" s="13">
         <v>1.25</v>
       </c>
-      <c r="D326" s="39">
-        <v>2.84</v>
-      </c>
+      <c r="D326" s="39"/>
       <c r="E326" s="13">
         <f t="shared" si="4"/>
-        <v>-101.56600000000003</v>
-      </c>
-      <c r="F326" s="20"/>
+        <v>-56.549000000000007</v>
+      </c>
+      <c r="F326" s="39">
+        <v>2.84</v>
+      </c>
       <c r="G326" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12245,14 +12245,14 @@
       <c r="C327" s="13">
         <v>1.25</v>
       </c>
-      <c r="D327" s="39">
-        <v>1.694</v>
-      </c>
+      <c r="D327" s="39"/>
       <c r="E327" s="13">
         <f t="shared" si="4"/>
-        <v>-102.01000000000003</v>
-      </c>
-      <c r="F327" s="20"/>
+        <v>-55.299000000000007</v>
+      </c>
+      <c r="F327" s="39">
+        <v>1.694</v>
+      </c>
       <c r="G327" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12272,14 +12272,14 @@
       <c r="C328" s="13">
         <v>1.25</v>
       </c>
-      <c r="D328" s="39">
-        <v>0.99</v>
-      </c>
+      <c r="D328" s="39"/>
       <c r="E328" s="13">
         <f t="shared" si="4"/>
-        <v>-101.75000000000003</v>
-      </c>
-      <c r="F328" s="20"/>
+        <v>-54.049000000000007</v>
+      </c>
+      <c r="F328" s="39">
+        <v>0.99</v>
+      </c>
       <c r="G328" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12298,7 +12298,7 @@
       <c r="D329" s="39"/>
       <c r="E329" s="13">
         <f t="shared" si="4"/>
-        <v>-101.75000000000003</v>
+        <v>-54.049000000000007</v>
       </c>
       <c r="F329" s="20"/>
       <c r="G329" s="13" t="str">
@@ -12322,14 +12322,14 @@
       <c r="C330" s="13">
         <v>1.25</v>
       </c>
-      <c r="D330" s="39">
-        <v>3.51</v>
-      </c>
+      <c r="D330" s="39"/>
       <c r="E330" s="13">
         <f t="shared" si="4"/>
-        <v>-104.01000000000003</v>
-      </c>
-      <c r="F330" s="20"/>
+        <v>-52.799000000000007</v>
+      </c>
+      <c r="F330" s="39">
+        <v>3.51</v>
+      </c>
       <c r="G330" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12349,14 +12349,14 @@
       <c r="C331" s="13">
         <v>1.25</v>
       </c>
-      <c r="D331" s="39">
-        <v>1.4370000000000001</v>
-      </c>
+      <c r="D331" s="39"/>
       <c r="E331" s="13">
         <f t="shared" si="4"/>
-        <v>-104.19700000000003</v>
-      </c>
-      <c r="F331" s="20"/>
+        <v>-51.549000000000007</v>
+      </c>
+      <c r="F331" s="39">
+        <v>1.4370000000000001</v>
+      </c>
       <c r="G331" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12376,14 +12376,14 @@
       <c r="C332" s="13">
         <v>1.25</v>
       </c>
-      <c r="D332" s="39">
-        <v>2.387</v>
-      </c>
+      <c r="D332" s="39"/>
       <c r="E332" s="13">
         <f t="shared" si="4"/>
-        <v>-105.33400000000003</v>
-      </c>
-      <c r="F332" s="20"/>
+        <v>-50.299000000000007</v>
+      </c>
+      <c r="F332" s="39">
+        <v>2.387</v>
+      </c>
       <c r="G332" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12406,9 +12406,9 @@
       <c r="D333" s="39"/>
       <c r="E333" s="13">
         <f t="shared" ref="E333:E396" si="5">SUM(C333,E332)-D333</f>
-        <v>-104.08400000000003</v>
-      </c>
-      <c r="F333" s="20"/>
+        <v>-49.049000000000007</v>
+      </c>
+      <c r="F333" s="39"/>
       <c r="G333" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12426,14 +12426,14 @@
         <v>316</v>
       </c>
       <c r="C334" s="13"/>
-      <c r="D334" s="39">
-        <v>1.742</v>
-      </c>
+      <c r="D334" s="39"/>
       <c r="E334" s="13">
         <f t="shared" si="5"/>
-        <v>-105.82600000000004</v>
-      </c>
-      <c r="F334" s="20"/>
+        <v>-49.049000000000007</v>
+      </c>
+      <c r="F334" s="39">
+        <v>1.742</v>
+      </c>
       <c r="G334" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -12452,9 +12452,9 @@
       <c r="D335" s="39"/>
       <c r="E335" s="13">
         <f t="shared" si="5"/>
-        <v>-105.82600000000004</v>
-      </c>
-      <c r="F335" s="20"/>
+        <v>-49.049000000000007</v>
+      </c>
+      <c r="F335" s="39"/>
       <c r="G335" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -12478,14 +12478,14 @@
       <c r="C336" s="13">
         <v>1.25</v>
       </c>
-      <c r="D336" s="39">
-        <v>2.0369999999999999</v>
-      </c>
+      <c r="D336" s="39"/>
       <c r="E336" s="13">
         <f t="shared" si="5"/>
-        <v>-106.61300000000004</v>
-      </c>
-      <c r="F336" s="20"/>
+        <v>-47.799000000000007</v>
+      </c>
+      <c r="F336" s="39">
+        <v>2.0369999999999999</v>
+      </c>
       <c r="G336" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12505,14 +12505,14 @@
       <c r="C337" s="13">
         <v>1.25</v>
       </c>
-      <c r="D337" s="39">
-        <v>1.9039999999999999</v>
-      </c>
+      <c r="D337" s="39"/>
       <c r="E337" s="13">
         <f t="shared" si="5"/>
-        <v>-107.26700000000004</v>
-      </c>
-      <c r="F337" s="20"/>
+        <v>-46.549000000000007</v>
+      </c>
+      <c r="F337" s="39">
+        <v>1.9039999999999999</v>
+      </c>
       <c r="G337" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12532,14 +12532,14 @@
       <c r="C338" s="13">
         <v>1.25</v>
       </c>
-      <c r="D338" s="39">
-        <v>1.742</v>
-      </c>
+      <c r="D338" s="39"/>
       <c r="E338" s="13">
         <f t="shared" si="5"/>
-        <v>-107.75900000000004</v>
-      </c>
-      <c r="F338" s="20"/>
+        <v>-45.299000000000007</v>
+      </c>
+      <c r="F338" s="39">
+        <v>1.742</v>
+      </c>
       <c r="G338" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12559,14 +12559,14 @@
       <c r="C339" s="13">
         <v>1.25</v>
       </c>
-      <c r="D339" s="39">
-        <v>3.1579999999999999</v>
-      </c>
+      <c r="D339" s="39"/>
       <c r="E339" s="13">
         <f t="shared" si="5"/>
-        <v>-109.66700000000004</v>
-      </c>
-      <c r="F339" s="20"/>
+        <v>-44.049000000000007</v>
+      </c>
+      <c r="F339" s="39">
+        <v>3.1579999999999999</v>
+      </c>
       <c r="G339" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12585,9 +12585,9 @@
       <c r="D340" s="39"/>
       <c r="E340" s="13">
         <f t="shared" si="5"/>
-        <v>-109.66700000000004</v>
-      </c>
-      <c r="F340" s="20"/>
+        <v>-44.049000000000007</v>
+      </c>
+      <c r="F340" s="39"/>
       <c r="G340" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -12611,14 +12611,14 @@
       <c r="C341" s="13">
         <v>1.25</v>
       </c>
-      <c r="D341" s="39">
-        <v>0.50600000000000001</v>
-      </c>
+      <c r="D341" s="39"/>
       <c r="E341" s="13">
         <f t="shared" si="5"/>
-        <v>-108.92300000000004</v>
-      </c>
-      <c r="F341" s="20"/>
+        <v>-42.799000000000007</v>
+      </c>
+      <c r="F341" s="39">
+        <v>0.50600000000000001</v>
+      </c>
       <c r="G341" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12638,14 +12638,14 @@
       <c r="C342" s="13">
         <v>1.25</v>
       </c>
-      <c r="D342" s="39">
-        <v>4.0439999999999996</v>
-      </c>
+      <c r="D342" s="39"/>
       <c r="E342" s="13">
         <f t="shared" si="5"/>
-        <v>-111.71700000000004</v>
-      </c>
-      <c r="F342" s="20"/>
+        <v>-41.549000000000007</v>
+      </c>
+      <c r="F342" s="39">
+        <v>4.0439999999999996</v>
+      </c>
       <c r="G342" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12665,14 +12665,14 @@
       <c r="C343" s="13">
         <v>1.25</v>
       </c>
-      <c r="D343" s="39">
-        <v>1.9</v>
-      </c>
+      <c r="D343" s="39"/>
       <c r="E343" s="13">
         <f t="shared" si="5"/>
-        <v>-112.36700000000005</v>
-      </c>
-      <c r="F343" s="20"/>
+        <v>-40.299000000000007</v>
+      </c>
+      <c r="F343" s="39">
+        <v>1.9</v>
+      </c>
       <c r="G343" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -12691,7 +12691,7 @@
       <c r="D344" s="39"/>
       <c r="E344" s="13">
         <f t="shared" si="5"/>
-        <v>-112.36700000000005</v>
+        <v>-40.299000000000007</v>
       </c>
       <c r="F344" s="20"/>
       <c r="G344" s="13" t="str">
@@ -12720,7 +12720,7 @@
       <c r="D345" s="39"/>
       <c r="E345" s="13">
         <f t="shared" si="5"/>
-        <v>-111.11700000000005</v>
+        <v>-39.049000000000007</v>
       </c>
       <c r="F345" s="20"/>
       <c r="G345" s="13">
@@ -12745,7 +12745,7 @@
       <c r="D346" s="39"/>
       <c r="E346" s="13">
         <f t="shared" si="5"/>
-        <v>-111.11700000000005</v>
+        <v>-39.049000000000007</v>
       </c>
       <c r="F346" s="20"/>
       <c r="G346" s="13"/>
@@ -12765,7 +12765,7 @@
       <c r="D347" s="39"/>
       <c r="E347" s="13">
         <f t="shared" si="5"/>
-        <v>-111.11700000000005</v>
+        <v>-39.049000000000007</v>
       </c>
       <c r="F347" s="20"/>
       <c r="G347" s="13" t="str">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="E348" s="13">
         <f t="shared" si="5"/>
-        <v>-113.77100000000004</v>
+        <v>-41.703000000000003</v>
       </c>
       <c r="F348" s="20"/>
       <c r="G348" s="13"/>
@@ -12810,7 +12810,7 @@
       <c r="D349" s="39"/>
       <c r="E349" s="13">
         <f t="shared" si="5"/>
-        <v>-113.77100000000004</v>
+        <v>-41.703000000000003</v>
       </c>
       <c r="F349" s="20"/>
       <c r="G349" s="13" t="str">
@@ -12839,7 +12839,7 @@
       </c>
       <c r="E350" s="13">
         <f t="shared" si="5"/>
-        <v>-116.59400000000005</v>
+        <v>-44.526000000000003</v>
       </c>
       <c r="F350" s="20"/>
       <c r="G350" s="13">
@@ -12860,7 +12860,7 @@
       <c r="D351" s="39"/>
       <c r="E351" s="13">
         <f t="shared" si="5"/>
-        <v>-116.59400000000005</v>
+        <v>-44.526000000000003</v>
       </c>
       <c r="F351" s="20"/>
       <c r="G351" s="13"/>
@@ -12888,7 +12888,7 @@
       </c>
       <c r="E352" s="13">
         <f t="shared" si="5"/>
-        <v>-118.29800000000004</v>
+        <v>-46.230000000000004</v>
       </c>
       <c r="F352" s="20"/>
       <c r="G352" s="13">
@@ -12909,7 +12909,7 @@
       <c r="D353" s="39"/>
       <c r="E353" s="13">
         <f t="shared" si="5"/>
-        <v>-118.29800000000004</v>
+        <v>-46.230000000000004</v>
       </c>
       <c r="F353" s="20"/>
       <c r="G353" s="13" t="str">
@@ -12940,7 +12940,7 @@
       </c>
       <c r="E354" s="13">
         <f t="shared" si="5"/>
-        <v>-120.08500000000005</v>
+        <v>-48.017000000000003</v>
       </c>
       <c r="F354" s="20"/>
       <c r="G354" s="13">
@@ -12961,7 +12961,7 @@
       <c r="D355" s="39"/>
       <c r="E355" s="13">
         <f t="shared" si="5"/>
-        <v>-120.08500000000005</v>
+        <v>-48.017000000000003</v>
       </c>
       <c r="F355" s="20"/>
       <c r="G355" s="13" t="str">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="E356" s="13">
         <f t="shared" si="5"/>
-        <v>-120.49100000000006</v>
+        <v>-48.423000000000002</v>
       </c>
       <c r="F356" s="20"/>
       <c r="G356" s="13">
@@ -13019,7 +13019,7 @@
       </c>
       <c r="E357" s="13">
         <f t="shared" si="5"/>
-        <v>-123.51400000000005</v>
+        <v>-51.445999999999998</v>
       </c>
       <c r="F357" s="20"/>
       <c r="G357" s="13">
@@ -13040,7 +13040,7 @@
       <c r="D358" s="39"/>
       <c r="E358" s="13">
         <f t="shared" si="5"/>
-        <v>-123.51400000000005</v>
+        <v>-51.445999999999998</v>
       </c>
       <c r="F358" s="20"/>
       <c r="G358" s="13" t="str">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="E359" s="13">
         <f t="shared" si="5"/>
-        <v>-125.30400000000006</v>
+        <v>-53.235999999999997</v>
       </c>
       <c r="F359" s="20"/>
       <c r="G359" s="13">
@@ -13092,7 +13092,7 @@
       <c r="D360" s="39"/>
       <c r="E360" s="13">
         <f t="shared" si="5"/>
-        <v>-125.30400000000006</v>
+        <v>-53.235999999999997</v>
       </c>
       <c r="F360" s="20"/>
       <c r="G360" s="13" t="str">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="E361" s="13">
         <f t="shared" si="5"/>
-        <v>-126.98900000000006</v>
+        <v>-54.920999999999999</v>
       </c>
       <c r="F361" s="20"/>
       <c r="G361" s="13">
@@ -13150,7 +13150,7 @@
       </c>
       <c r="E362" s="13">
         <f t="shared" si="5"/>
-        <v>-128.09700000000007</v>
+        <v>-56.028999999999996</v>
       </c>
       <c r="F362" s="20"/>
       <c r="G362" s="13">
@@ -13177,7 +13177,7 @@
       </c>
       <c r="E363" s="13">
         <f t="shared" si="5"/>
-        <v>-128.78400000000008</v>
+        <v>-56.715999999999994</v>
       </c>
       <c r="F363" s="20"/>
       <c r="G363" s="13">
@@ -13204,7 +13204,7 @@
       </c>
       <c r="E364" s="13">
         <f t="shared" si="5"/>
-        <v>-131.14000000000007</v>
+        <v>-59.071999999999996</v>
       </c>
       <c r="F364" s="20"/>
       <c r="G364" s="13">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="E365" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.427999999999997</v>
       </c>
       <c r="F365" s="20"/>
       <c r="G365" s="13">
@@ -13258,7 +13258,7 @@
       </c>
       <c r="E366" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.427999999999997</v>
       </c>
       <c r="F366" s="20">
         <v>1.2669999999999999</v>
@@ -13281,7 +13281,7 @@
       <c r="D367" s="39"/>
       <c r="E367" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.427999999999997</v>
       </c>
       <c r="F367" s="20"/>
       <c r="G367" s="13" t="str">
@@ -13310,7 +13310,7 @@
       </c>
       <c r="E368" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.427999999999997</v>
       </c>
       <c r="F368" s="20">
         <v>0.91700000000000004</v>
@@ -13335,7 +13335,7 @@
       <c r="D369" s="39"/>
       <c r="E369" s="13">
         <f t="shared" si="5"/>
-        <v>-132.24600000000007</v>
+        <v>-60.177999999999997</v>
       </c>
       <c r="F369" s="20"/>
       <c r="G369" s="13">
@@ -13358,7 +13358,7 @@
       <c r="D370" s="39"/>
       <c r="E370" s="13">
         <f t="shared" si="5"/>
-        <v>-130.99600000000007</v>
+        <v>-58.927999999999997</v>
       </c>
       <c r="F370" s="20"/>
       <c r="G370" s="13">
@@ -13385,7 +13385,7 @@
       </c>
       <c r="E371" s="13">
         <f t="shared" si="5"/>
-        <v>-132.27700000000007</v>
+        <v>-60.208999999999996</v>
       </c>
       <c r="F371" s="20"/>
       <c r="G371" s="13">
@@ -13406,7 +13406,7 @@
       <c r="D372" s="39"/>
       <c r="E372" s="13">
         <f t="shared" si="5"/>
-        <v>-132.27700000000007</v>
+        <v>-60.208999999999996</v>
       </c>
       <c r="F372" s="20"/>
       <c r="G372" s="13" t="str">
@@ -13433,7 +13433,7 @@
       <c r="D373" s="39"/>
       <c r="E373" s="13">
         <f t="shared" si="5"/>
-        <v>-131.02700000000007</v>
+        <v>-58.958999999999996</v>
       </c>
       <c r="F373" s="20"/>
       <c r="G373" s="13">
@@ -13460,7 +13460,7 @@
       </c>
       <c r="E374" s="13">
         <f t="shared" si="5"/>
-        <v>-131.87300000000008</v>
+        <v>-59.804999999999993</v>
       </c>
       <c r="F374" s="20"/>
       <c r="G374" s="13">
@@ -13481,7 +13481,7 @@
       <c r="D375" s="39"/>
       <c r="E375" s="13">
         <f t="shared" si="5"/>
-        <v>-131.87300000000008</v>
+        <v>-59.804999999999993</v>
       </c>
       <c r="F375" s="20"/>
       <c r="G375" s="13" t="str">
@@ -13512,7 +13512,7 @@
       </c>
       <c r="E376" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.42799999999999</v>
       </c>
       <c r="F376" s="20">
         <v>0.59199999999999997</v>
@@ -13541,7 +13541,7 @@
       </c>
       <c r="E377" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.42799999999999</v>
       </c>
       <c r="F377" s="20">
         <v>1.46</v>
@@ -13564,7 +13564,7 @@
       <c r="D378" s="39"/>
       <c r="E378" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.42799999999999</v>
       </c>
       <c r="F378" s="20"/>
       <c r="G378" s="13" t="str">
@@ -13595,7 +13595,7 @@
       </c>
       <c r="E379" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.42799999999999</v>
       </c>
       <c r="F379" s="20">
         <v>2.19</v>
@@ -13618,7 +13618,7 @@
       <c r="D380" s="39"/>
       <c r="E380" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.42799999999999</v>
       </c>
       <c r="F380" s="20"/>
       <c r="G380" s="13" t="str">
@@ -13641,7 +13641,7 @@
       <c r="D381" s="39"/>
       <c r="E381" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.42799999999999</v>
       </c>
       <c r="F381" s="20"/>
       <c r="G381" s="13" t="str">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="E382" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.42799999999999</v>
       </c>
       <c r="F382" s="20">
         <v>2.3959999999999999</v>
@@ -13695,7 +13695,7 @@
       <c r="D383" s="39"/>
       <c r="E383" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.42799999999999</v>
       </c>
       <c r="F383" s="20"/>
       <c r="G383" s="13" t="str">
@@ -13726,7 +13726,7 @@
       </c>
       <c r="E384" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.42799999999999</v>
       </c>
       <c r="F384" s="20">
         <v>2.0209999999999999</v>
@@ -13749,7 +13749,7 @@
       <c r="D385" s="39"/>
       <c r="E385" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.42799999999999</v>
       </c>
       <c r="F385" s="20"/>
       <c r="G385" s="13" t="str">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="E386" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.42799999999999</v>
       </c>
       <c r="F386" s="20">
         <v>2.4849999999999999</v>
@@ -13803,7 +13803,7 @@
       <c r="D387" s="39"/>
       <c r="E387" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.42799999999999</v>
       </c>
       <c r="F387" s="20"/>
       <c r="G387" s="13" t="str">
@@ -13828,7 +13828,7 @@
       <c r="D388" s="39"/>
       <c r="E388" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.42799999999999</v>
       </c>
       <c r="F388" s="20"/>
       <c r="G388" s="13" t="str">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="E389" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.42799999999999</v>
       </c>
       <c r="F389" s="20">
         <v>0.95399999999999996</v>
@@ -13880,7 +13880,7 @@
       <c r="D390" s="39"/>
       <c r="E390" s="13">
         <f t="shared" si="5"/>
-        <v>-133.49600000000007</v>
+        <v>-61.42799999999999</v>
       </c>
       <c r="F390" s="20"/>
       <c r="G390" s="13"/>
@@ -13908,7 +13908,7 @@
       </c>
       <c r="E391" s="13">
         <f t="shared" si="5"/>
-        <v>-133.90200000000007</v>
+        <v>-61.833999999999989</v>
       </c>
       <c r="F391" s="20"/>
       <c r="G391" s="13">
@@ -13931,7 +13931,7 @@
       <c r="D392" s="39"/>
       <c r="E392" s="13">
         <f t="shared" si="5"/>
-        <v>-132.65200000000007</v>
+        <v>-60.583999999999989</v>
       </c>
       <c r="F392" s="20"/>
       <c r="G392" s="13">
@@ -13956,7 +13956,7 @@
       <c r="D393" s="39"/>
       <c r="E393" s="13">
         <f t="shared" si="5"/>
-        <v>-131.40200000000007</v>
+        <v>-59.333999999999989</v>
       </c>
       <c r="F393" s="20"/>
       <c r="G393" s="13">
@@ -13981,7 +13981,7 @@
       <c r="D394" s="39"/>
       <c r="E394" s="13">
         <f t="shared" si="5"/>
-        <v>-131.40200000000007</v>
+        <v>-59.333999999999989</v>
       </c>
       <c r="F394" s="20"/>
       <c r="G394" s="13" t="str">
@@ -14006,7 +14006,7 @@
       </c>
       <c r="E395" s="13">
         <f t="shared" si="5"/>
-        <v>-133.14400000000006</v>
+        <v>-61.075999999999986</v>
       </c>
       <c r="F395" s="20"/>
       <c r="G395" s="13" t="str">
@@ -14033,7 +14033,7 @@
       </c>
       <c r="E396" s="13">
         <f t="shared" si="5"/>
-        <v>-133.90200000000007</v>
+        <v>-61.833999999999989</v>
       </c>
       <c r="F396" s="20">
         <v>0.49199999999999999</v>
@@ -14056,7 +14056,7 @@
       <c r="D397" s="39"/>
       <c r="E397" s="13">
         <f t="shared" ref="E397:E460" si="6">SUM(C397,E396)-D397</f>
-        <v>-133.90200000000007</v>
+        <v>-61.833999999999989</v>
       </c>
       <c r="F397" s="20"/>
       <c r="G397" s="13" t="str">
@@ -14087,7 +14087,7 @@
       </c>
       <c r="E398" s="13">
         <f t="shared" si="6"/>
-        <v>-133.90200000000007</v>
+        <v>-61.833999999999989</v>
       </c>
       <c r="F398" s="20">
         <v>0.873</v>
@@ -14116,7 +14116,7 @@
       </c>
       <c r="E399" s="13">
         <f t="shared" si="6"/>
-        <v>-133.90200000000007</v>
+        <v>-61.833999999999989</v>
       </c>
       <c r="F399" s="20">
         <v>1.244</v>
@@ -14139,7 +14139,7 @@
       <c r="D400" s="39"/>
       <c r="E400" s="13">
         <f t="shared" si="6"/>
-        <v>-133.90200000000007</v>
+        <v>-61.833999999999989</v>
       </c>
       <c r="F400" s="20"/>
       <c r="G400" s="13" t="str">
@@ -14170,7 +14170,7 @@
       </c>
       <c r="E401" s="13">
         <f t="shared" si="6"/>
-        <v>-135.90200000000007</v>
+        <v>-63.833999999999989</v>
       </c>
       <c r="F401" s="20">
         <v>0.47099999999999997</v>
@@ -14193,7 +14193,7 @@
       <c r="D402" s="39"/>
       <c r="E402" s="13">
         <f t="shared" si="6"/>
-        <v>-135.90200000000007</v>
+        <v>-63.833999999999989</v>
       </c>
       <c r="F402" s="20"/>
       <c r="G402" s="13"/>
@@ -14217,7 +14217,7 @@
       <c r="D403" s="39"/>
       <c r="E403" s="13">
         <f t="shared" si="6"/>
-        <v>-134.65200000000007</v>
+        <v>-62.583999999999989</v>
       </c>
       <c r="F403" s="20"/>
       <c r="G403" s="13">
@@ -14244,7 +14244,7 @@
       </c>
       <c r="E404" s="13">
         <f t="shared" si="6"/>
-        <v>-136.31400000000008</v>
+        <v>-64.245999999999995</v>
       </c>
       <c r="F404" s="20"/>
       <c r="G404" s="13">
@@ -14265,7 +14265,7 @@
       <c r="D405" s="39"/>
       <c r="E405" s="13">
         <f t="shared" si="6"/>
-        <v>-136.31400000000008</v>
+        <v>-64.245999999999995</v>
       </c>
       <c r="F405" s="20"/>
       <c r="G405" s="13" t="str">
@@ -14290,7 +14290,7 @@
       <c r="D406" s="39"/>
       <c r="E406" s="13">
         <f t="shared" si="6"/>
-        <v>-135.06400000000008</v>
+        <v>-62.995999999999995</v>
       </c>
       <c r="F406" s="20"/>
       <c r="G406" s="13">
@@ -14313,7 +14313,7 @@
       <c r="D407" s="39"/>
       <c r="E407" s="13">
         <f t="shared" si="6"/>
-        <v>-133.81400000000008</v>
+        <v>-61.745999999999995</v>
       </c>
       <c r="F407" s="20"/>
       <c r="G407" s="13">
@@ -14334,7 +14334,7 @@
       <c r="D408" s="39"/>
       <c r="E408" s="13">
         <f t="shared" si="6"/>
-        <v>-133.81400000000008</v>
+        <v>-61.745999999999995</v>
       </c>
       <c r="F408" s="20"/>
       <c r="G408" s="13" t="str">
@@ -14359,7 +14359,7 @@
       <c r="D409" s="39"/>
       <c r="E409" s="13">
         <f t="shared" si="6"/>
-        <v>-132.56400000000008</v>
+        <v>-60.495999999999995</v>
       </c>
       <c r="F409" s="20"/>
       <c r="G409" s="13">
@@ -14382,7 +14382,7 @@
       <c r="D410" s="39"/>
       <c r="E410" s="13">
         <f t="shared" si="6"/>
-        <v>-131.31400000000008</v>
+        <v>-59.245999999999995</v>
       </c>
       <c r="F410" s="20"/>
       <c r="G410" s="13">
@@ -14405,7 +14405,7 @@
       <c r="D411" s="39"/>
       <c r="E411" s="13">
         <f t="shared" si="6"/>
-        <v>-130.06400000000008</v>
+        <v>-57.995999999999995</v>
       </c>
       <c r="F411" s="20"/>
       <c r="G411" s="13">
@@ -14428,7 +14428,7 @@
       <c r="D412" s="39"/>
       <c r="E412" s="13">
         <f t="shared" si="6"/>
-        <v>-128.81400000000008</v>
+        <v>-56.745999999999995</v>
       </c>
       <c r="F412" s="20"/>
       <c r="G412" s="13">
@@ -14451,7 +14451,7 @@
       <c r="D413" s="39"/>
       <c r="E413" s="13">
         <f t="shared" si="6"/>
-        <v>-127.56400000000008</v>
+        <v>-55.495999999999995</v>
       </c>
       <c r="F413" s="20"/>
       <c r="G413" s="13">
@@ -14474,7 +14474,7 @@
       <c r="D414" s="39"/>
       <c r="E414" s="13">
         <f t="shared" si="6"/>
-        <v>-126.31400000000008</v>
+        <v>-54.245999999999995</v>
       </c>
       <c r="F414" s="20"/>
       <c r="G414" s="13">
@@ -14497,7 +14497,7 @@
       <c r="D415" s="39"/>
       <c r="E415" s="13">
         <f t="shared" si="6"/>
-        <v>-125.06400000000008</v>
+        <v>-52.995999999999995</v>
       </c>
       <c r="F415" s="20"/>
       <c r="G415" s="13">
@@ -14520,7 +14520,7 @@
       <c r="D416" s="39"/>
       <c r="E416" s="13">
         <f t="shared" si="6"/>
-        <v>-123.81400000000008</v>
+        <v>-51.745999999999995</v>
       </c>
       <c r="F416" s="20"/>
       <c r="G416" s="13">
@@ -14543,7 +14543,7 @@
       <c r="D417" s="39"/>
       <c r="E417" s="13">
         <f t="shared" si="6"/>
-        <v>-122.56400000000008</v>
+        <v>-50.495999999999995</v>
       </c>
       <c r="F417" s="20"/>
       <c r="G417" s="13">
@@ -14566,7 +14566,7 @@
       <c r="D418" s="39"/>
       <c r="E418" s="13">
         <f t="shared" si="6"/>
-        <v>-121.31400000000008</v>
+        <v>-49.245999999999995</v>
       </c>
       <c r="F418" s="20"/>
       <c r="G418" s="13">
@@ -14589,7 +14589,7 @@
       <c r="D419" s="39"/>
       <c r="E419" s="13">
         <f t="shared" si="6"/>
-        <v>-120.06400000000008</v>
+        <v>-47.995999999999995</v>
       </c>
       <c r="F419" s="20"/>
       <c r="G419" s="13">
@@ -14616,7 +14616,7 @@
       </c>
       <c r="E420" s="13">
         <f t="shared" si="6"/>
-        <v>-123.81400000000008</v>
+        <v>-51.745999999999995</v>
       </c>
       <c r="F420" s="20"/>
       <c r="G420" s="13">
@@ -14637,7 +14637,7 @@
       <c r="D421" s="39"/>
       <c r="E421" s="13">
         <f t="shared" si="6"/>
-        <v>-123.81400000000008</v>
+        <v>-51.745999999999995</v>
       </c>
       <c r="F421" s="20"/>
       <c r="G421" s="13" t="str">
@@ -14662,7 +14662,7 @@
       <c r="D422" s="39"/>
       <c r="E422" s="13">
         <f t="shared" si="6"/>
-        <v>-122.56400000000008</v>
+        <v>-50.495999999999995</v>
       </c>
       <c r="F422" s="20"/>
       <c r="G422" s="13">
@@ -14685,7 +14685,7 @@
       <c r="D423" s="39"/>
       <c r="E423" s="13">
         <f t="shared" si="6"/>
-        <v>-121.31400000000008</v>
+        <v>-49.245999999999995</v>
       </c>
       <c r="F423" s="20"/>
       <c r="G423" s="13">
@@ -14708,7 +14708,7 @@
       <c r="D424" s="39"/>
       <c r="E424" s="13">
         <f t="shared" si="6"/>
-        <v>-120.06400000000008</v>
+        <v>-47.995999999999995</v>
       </c>
       <c r="F424" s="20"/>
       <c r="G424" s="13">
@@ -14731,7 +14731,7 @@
       <c r="D425" s="39"/>
       <c r="E425" s="13">
         <f t="shared" si="6"/>
-        <v>-118.81400000000008</v>
+        <v>-46.745999999999995</v>
       </c>
       <c r="F425" s="20"/>
       <c r="G425" s="13">
@@ -14754,7 +14754,7 @@
       <c r="D426" s="39"/>
       <c r="E426" s="13">
         <f t="shared" si="6"/>
-        <v>-117.56400000000008</v>
+        <v>-45.495999999999995</v>
       </c>
       <c r="F426" s="20"/>
       <c r="G426" s="13">
@@ -14777,7 +14777,7 @@
       <c r="D427" s="43"/>
       <c r="E427" s="13">
         <f t="shared" si="6"/>
-        <v>-116.31400000000008</v>
+        <v>-44.245999999999995</v>
       </c>
       <c r="F427" s="15"/>
       <c r="G427" s="42">
@@ -14800,7 +14800,7 @@
       <c r="D428" s="39"/>
       <c r="E428" s="13">
         <f t="shared" si="6"/>
-        <v>-115.06400000000008</v>
+        <v>-42.995999999999995</v>
       </c>
       <c r="F428" s="20"/>
       <c r="G428" s="13">
@@ -14823,7 +14823,7 @@
       <c r="D429" s="39"/>
       <c r="E429" s="13">
         <f t="shared" si="6"/>
-        <v>-113.81400000000008</v>
+        <v>-41.745999999999995</v>
       </c>
       <c r="F429" s="20"/>
       <c r="G429" s="13">
@@ -14846,7 +14846,7 @@
       <c r="D430" s="39"/>
       <c r="E430" s="13">
         <f t="shared" si="6"/>
-        <v>-112.56400000000008</v>
+        <v>-40.495999999999995</v>
       </c>
       <c r="F430" s="20"/>
       <c r="G430" s="13">
@@ -14869,7 +14869,7 @@
       <c r="D431" s="39"/>
       <c r="E431" s="13">
         <f t="shared" si="6"/>
-        <v>-111.31400000000008</v>
+        <v>-39.245999999999995</v>
       </c>
       <c r="F431" s="20"/>
       <c r="G431" s="13">
@@ -14892,7 +14892,7 @@
       <c r="D432" s="39"/>
       <c r="E432" s="13">
         <f t="shared" si="6"/>
-        <v>-110.06400000000008</v>
+        <v>-37.995999999999995</v>
       </c>
       <c r="F432" s="20"/>
       <c r="G432" s="13">
@@ -14919,7 +14919,7 @@
       </c>
       <c r="E433" s="13">
         <f t="shared" si="6"/>
-        <v>-113.81400000000008</v>
+        <v>-41.745999999999995</v>
       </c>
       <c r="F433" s="20"/>
       <c r="G433" s="13">
@@ -14940,7 +14940,7 @@
       <c r="D434" s="39"/>
       <c r="E434" s="13">
         <f t="shared" si="6"/>
-        <v>-113.81400000000008</v>
+        <v>-41.745999999999995</v>
       </c>
       <c r="F434" s="20"/>
       <c r="G434" s="13" t="str">
@@ -14965,7 +14965,7 @@
       <c r="D435" s="39"/>
       <c r="E435" s="13">
         <f t="shared" si="6"/>
-        <v>-112.56400000000008</v>
+        <v>-40.495999999999995</v>
       </c>
       <c r="F435" s="20"/>
       <c r="G435" s="13">
@@ -14988,7 +14988,7 @@
       <c r="D436" s="39"/>
       <c r="E436" s="13">
         <f t="shared" si="6"/>
-        <v>-111.31400000000008</v>
+        <v>-39.245999999999995</v>
       </c>
       <c r="F436" s="20"/>
       <c r="G436" s="13">
@@ -15011,7 +15011,7 @@
       <c r="D437" s="39"/>
       <c r="E437" s="13">
         <f t="shared" si="6"/>
-        <v>-110.06400000000008</v>
+        <v>-37.995999999999995</v>
       </c>
       <c r="F437" s="20"/>
       <c r="G437" s="13">
@@ -15034,7 +15034,7 @@
       <c r="D438" s="39"/>
       <c r="E438" s="13">
         <f t="shared" si="6"/>
-        <v>-108.81400000000008</v>
+        <v>-36.745999999999995</v>
       </c>
       <c r="F438" s="20"/>
       <c r="G438" s="13">
@@ -15057,7 +15057,7 @@
       <c r="D439" s="39"/>
       <c r="E439" s="13">
         <f t="shared" si="6"/>
-        <v>-107.56400000000008</v>
+        <v>-35.495999999999995</v>
       </c>
       <c r="F439" s="20"/>
       <c r="G439" s="13">
@@ -15080,7 +15080,7 @@
       <c r="D440" s="39"/>
       <c r="E440" s="13">
         <f t="shared" si="6"/>
-        <v>-106.31400000000008</v>
+        <v>-34.245999999999995</v>
       </c>
       <c r="F440" s="20"/>
       <c r="G440" s="13">
@@ -15103,7 +15103,7 @@
       <c r="D441" s="39"/>
       <c r="E441" s="13">
         <f t="shared" si="6"/>
-        <v>-105.06400000000008</v>
+        <v>-32.995999999999995</v>
       </c>
       <c r="F441" s="20"/>
       <c r="G441" s="13">
@@ -15126,7 +15126,7 @@
       <c r="D442" s="39"/>
       <c r="E442" s="13">
         <f t="shared" si="6"/>
-        <v>-103.81400000000008</v>
+        <v>-31.745999999999995</v>
       </c>
       <c r="F442" s="20"/>
       <c r="G442" s="13">
@@ -15149,7 +15149,7 @@
       <c r="D443" s="39"/>
       <c r="E443" s="13">
         <f t="shared" si="6"/>
-        <v>-102.56400000000008</v>
+        <v>-30.495999999999995</v>
       </c>
       <c r="F443" s="20"/>
       <c r="G443" s="13">
@@ -15172,7 +15172,7 @@
       <c r="D444" s="39"/>
       <c r="E444" s="13">
         <f t="shared" si="6"/>
-        <v>-101.31400000000008</v>
+        <v>-29.245999999999995</v>
       </c>
       <c r="F444" s="20"/>
       <c r="G444" s="13">
@@ -15195,7 +15195,7 @@
       <c r="D445" s="39"/>
       <c r="E445" s="13">
         <f t="shared" si="6"/>
-        <v>-100.06400000000008</v>
+        <v>-27.995999999999995</v>
       </c>
       <c r="F445" s="20"/>
       <c r="G445" s="13">
@@ -15222,7 +15222,7 @@
       </c>
       <c r="E446" s="13">
         <f t="shared" si="6"/>
-        <v>-103.81400000000008</v>
+        <v>-31.745999999999995</v>
       </c>
       <c r="F446" s="20"/>
       <c r="G446" s="13">
@@ -15243,7 +15243,7 @@
       <c r="D447" s="39"/>
       <c r="E447" s="13">
         <f t="shared" si="6"/>
-        <v>-103.81400000000008</v>
+        <v>-31.745999999999995</v>
       </c>
       <c r="F447" s="20"/>
       <c r="G447" s="13" t="str">
@@ -15268,7 +15268,7 @@
       <c r="D448" s="39"/>
       <c r="E448" s="13">
         <f t="shared" si="6"/>
-        <v>-102.56400000000008</v>
+        <v>-30.495999999999995</v>
       </c>
       <c r="F448" s="20"/>
       <c r="G448" s="13">
@@ -15291,7 +15291,7 @@
       <c r="D449" s="39"/>
       <c r="E449" s="13">
         <f t="shared" si="6"/>
-        <v>-101.31400000000008</v>
+        <v>-29.245999999999995</v>
       </c>
       <c r="F449" s="20"/>
       <c r="G449" s="13">
@@ -15314,7 +15314,7 @@
       <c r="D450" s="39"/>
       <c r="E450" s="13">
         <f t="shared" si="6"/>
-        <v>-100.06400000000008</v>
+        <v>-27.995999999999995</v>
       </c>
       <c r="F450" s="20"/>
       <c r="G450" s="13">
@@ -15337,7 +15337,7 @@
       <c r="D451" s="39"/>
       <c r="E451" s="13">
         <f t="shared" si="6"/>
-        <v>-98.814000000000078</v>
+        <v>-26.745999999999995</v>
       </c>
       <c r="F451" s="20"/>
       <c r="G451" s="13">
@@ -15360,7 +15360,7 @@
       <c r="D452" s="39"/>
       <c r="E452" s="13">
         <f t="shared" si="6"/>
-        <v>-97.564000000000078</v>
+        <v>-25.495999999999995</v>
       </c>
       <c r="F452" s="20"/>
       <c r="G452" s="13">
@@ -15383,7 +15383,7 @@
       <c r="D453" s="39"/>
       <c r="E453" s="13">
         <f t="shared" si="6"/>
-        <v>-96.314000000000078</v>
+        <v>-24.245999999999995</v>
       </c>
       <c r="F453" s="20"/>
       <c r="G453" s="13">
@@ -15406,7 +15406,7 @@
       <c r="D454" s="39"/>
       <c r="E454" s="13">
         <f t="shared" si="6"/>
-        <v>-95.064000000000078</v>
+        <v>-22.995999999999995</v>
       </c>
       <c r="F454" s="20"/>
       <c r="G454" s="13">
@@ -15429,7 +15429,7 @@
       <c r="D455" s="39"/>
       <c r="E455" s="13">
         <f t="shared" si="6"/>
-        <v>-93.814000000000078</v>
+        <v>-21.745999999999995</v>
       </c>
       <c r="F455" s="20"/>
       <c r="G455" s="13">
@@ -15452,7 +15452,7 @@
       <c r="D456" s="39"/>
       <c r="E456" s="13">
         <f t="shared" si="6"/>
-        <v>-92.564000000000078</v>
+        <v>-20.495999999999995</v>
       </c>
       <c r="F456" s="20"/>
       <c r="G456" s="13">
@@ -15475,7 +15475,7 @@
       <c r="D457" s="39"/>
       <c r="E457" s="13">
         <f t="shared" si="6"/>
-        <v>-91.314000000000078</v>
+        <v>-19.245999999999995</v>
       </c>
       <c r="F457" s="20"/>
       <c r="G457" s="13">
@@ -15498,7 +15498,7 @@
       <c r="D458" s="39"/>
       <c r="E458" s="13">
         <f t="shared" si="6"/>
-        <v>-90.064000000000078</v>
+        <v>-17.995999999999995</v>
       </c>
       <c r="F458" s="20"/>
       <c r="G458" s="13">
@@ -15525,7 +15525,7 @@
       </c>
       <c r="E459" s="13">
         <f t="shared" si="6"/>
-        <v>-93.814000000000078</v>
+        <v>-21.745999999999995</v>
       </c>
       <c r="F459" s="20"/>
       <c r="G459" s="13">
@@ -15546,7 +15546,7 @@
       <c r="D460" s="39"/>
       <c r="E460" s="13">
         <f t="shared" si="6"/>
-        <v>-93.814000000000078</v>
+        <v>-21.745999999999995</v>
       </c>
       <c r="F460" s="20"/>
       <c r="G460" s="13" t="str">
@@ -15571,7 +15571,7 @@
       <c r="D461" s="39"/>
       <c r="E461" s="13">
         <f t="shared" ref="E461:E524" si="7">SUM(C461,E460)-D461</f>
-        <v>-92.564000000000078</v>
+        <v>-20.495999999999995</v>
       </c>
       <c r="F461" s="20"/>
       <c r="G461" s="13">
@@ -15594,7 +15594,7 @@
       <c r="D462" s="39"/>
       <c r="E462" s="13">
         <f t="shared" si="7"/>
-        <v>-91.314000000000078</v>
+        <v>-19.245999999999995</v>
       </c>
       <c r="F462" s="20"/>
       <c r="G462" s="13">
@@ -15617,7 +15617,7 @@
       <c r="D463" s="39"/>
       <c r="E463" s="13">
         <f t="shared" si="7"/>
-        <v>-90.064000000000078</v>
+        <v>-17.995999999999995</v>
       </c>
       <c r="F463" s="20"/>
       <c r="G463" s="13">
@@ -15640,7 +15640,7 @@
       <c r="D464" s="39"/>
       <c r="E464" s="13">
         <f t="shared" si="7"/>
-        <v>-88.814000000000078</v>
+        <v>-16.745999999999995</v>
       </c>
       <c r="F464" s="20"/>
       <c r="G464" s="13">
@@ -15663,7 +15663,7 @@
       <c r="D465" s="39"/>
       <c r="E465" s="13">
         <f t="shared" si="7"/>
-        <v>-87.564000000000078</v>
+        <v>-15.495999999999995</v>
       </c>
       <c r="F465" s="20"/>
       <c r="G465" s="13">
@@ -15686,7 +15686,7 @@
       <c r="D466" s="39"/>
       <c r="E466" s="13">
         <f t="shared" si="7"/>
-        <v>-86.314000000000078</v>
+        <v>-14.245999999999995</v>
       </c>
       <c r="F466" s="20"/>
       <c r="G466" s="13">
@@ -15709,7 +15709,7 @@
       <c r="D467" s="39"/>
       <c r="E467" s="13">
         <f t="shared" si="7"/>
-        <v>-85.064000000000078</v>
+        <v>-12.995999999999995</v>
       </c>
       <c r="F467" s="20"/>
       <c r="G467" s="13">
@@ -15732,7 +15732,7 @@
       <c r="D468" s="39"/>
       <c r="E468" s="13">
         <f t="shared" si="7"/>
-        <v>-83.814000000000078</v>
+        <v>-11.745999999999995</v>
       </c>
       <c r="F468" s="20"/>
       <c r="G468" s="13">
@@ -15755,7 +15755,7 @@
       <c r="D469" s="39"/>
       <c r="E469" s="13">
         <f t="shared" si="7"/>
-        <v>-82.564000000000078</v>
+        <v>-10.495999999999995</v>
       </c>
       <c r="F469" s="20"/>
       <c r="G469" s="13">
@@ -15778,7 +15778,7 @@
       <c r="D470" s="39"/>
       <c r="E470" s="13">
         <f t="shared" si="7"/>
-        <v>-81.314000000000078</v>
+        <v>-9.2459999999999951</v>
       </c>
       <c r="F470" s="20"/>
       <c r="G470" s="13">
@@ -15801,7 +15801,7 @@
       <c r="D471" s="39"/>
       <c r="E471" s="13">
         <f t="shared" si="7"/>
-        <v>-80.064000000000078</v>
+        <v>-7.9959999999999951</v>
       </c>
       <c r="F471" s="20"/>
       <c r="G471" s="13">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="E472" s="13">
         <f t="shared" si="7"/>
-        <v>-83.814000000000078</v>
+        <v>-11.745999999999995</v>
       </c>
       <c r="F472" s="20"/>
       <c r="G472" s="13">
@@ -15849,7 +15849,7 @@
       <c r="D473" s="39"/>
       <c r="E473" s="13">
         <f t="shared" si="7"/>
-        <v>-83.814000000000078</v>
+        <v>-11.745999999999995</v>
       </c>
       <c r="F473" s="20"/>
       <c r="G473" s="13" t="str">
@@ -15874,7 +15874,7 @@
       <c r="D474" s="39"/>
       <c r="E474" s="13">
         <f t="shared" si="7"/>
-        <v>-82.564000000000078</v>
+        <v>-10.495999999999995</v>
       </c>
       <c r="F474" s="20"/>
       <c r="G474" s="13">
@@ -15897,7 +15897,7 @@
       <c r="D475" s="39"/>
       <c r="E475" s="13">
         <f t="shared" si="7"/>
-        <v>-81.314000000000078</v>
+        <v>-9.2459999999999951</v>
       </c>
       <c r="F475" s="20"/>
       <c r="G475" s="13">
@@ -15920,7 +15920,7 @@
       <c r="D476" s="39"/>
       <c r="E476" s="13">
         <f t="shared" si="7"/>
-        <v>-80.064000000000078</v>
+        <v>-7.9959999999999951</v>
       </c>
       <c r="F476" s="20"/>
       <c r="G476" s="13">
@@ -15943,7 +15943,7 @@
       <c r="D477" s="39"/>
       <c r="E477" s="13">
         <f t="shared" si="7"/>
-        <v>-78.814000000000078</v>
+        <v>-6.7459999999999951</v>
       </c>
       <c r="F477" s="20"/>
       <c r="G477" s="13">
@@ -15966,7 +15966,7 @@
       <c r="D478" s="39"/>
       <c r="E478" s="13">
         <f t="shared" si="7"/>
-        <v>-77.564000000000078</v>
+        <v>-5.4959999999999951</v>
       </c>
       <c r="F478" s="20"/>
       <c r="G478" s="13">
@@ -15989,7 +15989,7 @@
       <c r="D479" s="39"/>
       <c r="E479" s="13">
         <f t="shared" si="7"/>
-        <v>-76.314000000000078</v>
+        <v>-4.2459999999999951</v>
       </c>
       <c r="F479" s="20"/>
       <c r="G479" s="13">
@@ -16012,7 +16012,7 @@
       <c r="D480" s="39"/>
       <c r="E480" s="13">
         <f t="shared" si="7"/>
-        <v>-75.064000000000078</v>
+        <v>-2.9959999999999951</v>
       </c>
       <c r="F480" s="20"/>
       <c r="G480" s="13">
@@ -16035,7 +16035,7 @@
       <c r="D481" s="39"/>
       <c r="E481" s="13">
         <f t="shared" si="7"/>
-        <v>-73.814000000000078</v>
+        <v>-1.7459999999999951</v>
       </c>
       <c r="F481" s="20"/>
       <c r="G481" s="13">
@@ -16058,7 +16058,7 @@
       <c r="D482" s="39"/>
       <c r="E482" s="13">
         <f t="shared" si="7"/>
-        <v>-72.564000000000078</v>
+        <v>-0.49599999999999511</v>
       </c>
       <c r="F482" s="20"/>
       <c r="G482" s="13">
@@ -16081,7 +16081,7 @@
       <c r="D483" s="39"/>
       <c r="E483" s="13">
         <f t="shared" si="7"/>
-        <v>-71.314000000000078</v>
+        <v>0.75400000000000489</v>
       </c>
       <c r="F483" s="20"/>
       <c r="G483" s="13">
@@ -16104,7 +16104,7 @@
       <c r="D484" s="39"/>
       <c r="E484" s="13">
         <f t="shared" si="7"/>
-        <v>-70.064000000000078</v>
+        <v>2.0040000000000049</v>
       </c>
       <c r="F484" s="20"/>
       <c r="G484" s="13">
@@ -16131,7 +16131,7 @@
       </c>
       <c r="E485" s="13">
         <f t="shared" si="7"/>
-        <v>-73.814000000000078</v>
+        <v>-1.7459999999999951</v>
       </c>
       <c r="F485" s="20"/>
       <c r="G485" s="13">
@@ -16152,7 +16152,7 @@
       <c r="D486" s="39"/>
       <c r="E486" s="13">
         <f t="shared" si="7"/>
-        <v>-73.814000000000078</v>
+        <v>-1.7459999999999951</v>
       </c>
       <c r="F486" s="20"/>
       <c r="G486" s="13" t="str">
@@ -16177,7 +16177,7 @@
       <c r="D487" s="39"/>
       <c r="E487" s="13">
         <f t="shared" si="7"/>
-        <v>-72.564000000000078</v>
+        <v>-0.49599999999999511</v>
       </c>
       <c r="F487" s="20"/>
       <c r="G487" s="13">
@@ -16200,7 +16200,7 @@
       <c r="D488" s="39"/>
       <c r="E488" s="13">
         <f t="shared" si="7"/>
-        <v>-71.314000000000078</v>
+        <v>0.75400000000000489</v>
       </c>
       <c r="F488" s="20"/>
       <c r="G488" s="13">
@@ -16223,7 +16223,7 @@
       <c r="D489" s="39"/>
       <c r="E489" s="13">
         <f t="shared" si="7"/>
-        <v>-70.064000000000078</v>
+        <v>2.0040000000000049</v>
       </c>
       <c r="F489" s="20"/>
       <c r="G489" s="13">
@@ -16246,7 +16246,7 @@
       <c r="D490" s="39"/>
       <c r="E490" s="13">
         <f t="shared" si="7"/>
-        <v>-68.814000000000078</v>
+        <v>3.2540000000000049</v>
       </c>
       <c r="F490" s="20"/>
       <c r="G490" s="13">
@@ -16269,7 +16269,7 @@
       <c r="D491" s="39"/>
       <c r="E491" s="13">
         <f t="shared" si="7"/>
-        <v>-67.564000000000078</v>
+        <v>4.5040000000000049</v>
       </c>
       <c r="F491" s="20"/>
       <c r="G491" s="13">
@@ -16292,7 +16292,7 @@
       <c r="D492" s="39"/>
       <c r="E492" s="13">
         <f t="shared" si="7"/>
-        <v>-66.314000000000078</v>
+        <v>5.7540000000000049</v>
       </c>
       <c r="F492" s="20"/>
       <c r="G492" s="13">
@@ -16315,7 +16315,7 @@
       <c r="D493" s="39"/>
       <c r="E493" s="13">
         <f t="shared" si="7"/>
-        <v>-65.064000000000078</v>
+        <v>7.0040000000000049</v>
       </c>
       <c r="F493" s="20"/>
       <c r="G493" s="13">
@@ -16338,7 +16338,7 @@
       <c r="D494" s="39"/>
       <c r="E494" s="13">
         <f t="shared" si="7"/>
-        <v>-63.814000000000078</v>
+        <v>8.2540000000000049</v>
       </c>
       <c r="F494" s="20"/>
       <c r="G494" s="13">
@@ -16361,7 +16361,7 @@
       <c r="D495" s="39"/>
       <c r="E495" s="13">
         <f t="shared" si="7"/>
-        <v>-62.564000000000078</v>
+        <v>9.5040000000000049</v>
       </c>
       <c r="F495" s="20"/>
       <c r="G495" s="13">
@@ -16384,7 +16384,7 @@
       <c r="D496" s="39"/>
       <c r="E496" s="13">
         <f t="shared" si="7"/>
-        <v>-61.314000000000078</v>
+        <v>10.754000000000005</v>
       </c>
       <c r="F496" s="20"/>
       <c r="G496" s="13">
@@ -16407,7 +16407,7 @@
       <c r="D497" s="39"/>
       <c r="E497" s="13">
         <f t="shared" si="7"/>
-        <v>-60.064000000000078</v>
+        <v>12.004000000000005</v>
       </c>
       <c r="F497" s="20"/>
       <c r="G497" s="13">
@@ -16434,7 +16434,7 @@
       </c>
       <c r="E498" s="13">
         <f t="shared" si="7"/>
-        <v>-63.814000000000078</v>
+        <v>8.2540000000000049</v>
       </c>
       <c r="F498" s="20"/>
       <c r="G498" s="13">
@@ -16455,7 +16455,7 @@
       <c r="D499" s="39"/>
       <c r="E499" s="13">
         <f t="shared" si="7"/>
-        <v>-63.814000000000078</v>
+        <v>8.2540000000000049</v>
       </c>
       <c r="F499" s="20"/>
       <c r="G499" s="13" t="str">
@@ -16480,7 +16480,7 @@
       <c r="D500" s="39"/>
       <c r="E500" s="13">
         <f t="shared" si="7"/>
-        <v>-62.564000000000078</v>
+        <v>9.5040000000000049</v>
       </c>
       <c r="F500" s="20"/>
       <c r="G500" s="13">
@@ -16504,7 +16504,7 @@
       <c r="D501" s="39"/>
       <c r="E501" s="13">
         <f t="shared" si="7"/>
-        <v>-61.314000000000078</v>
+        <v>10.754000000000005</v>
       </c>
       <c r="F501" s="20"/>
       <c r="G501" s="13">
@@ -16528,7 +16528,7 @@
       <c r="D502" s="39"/>
       <c r="E502" s="13">
         <f t="shared" si="7"/>
-        <v>-60.064000000000078</v>
+        <v>12.004000000000005</v>
       </c>
       <c r="F502" s="20"/>
       <c r="G502" s="13">
@@ -16552,7 +16552,7 @@
       <c r="D503" s="39"/>
       <c r="E503" s="13">
         <f t="shared" si="7"/>
-        <v>-58.814000000000078</v>
+        <v>13.254000000000005</v>
       </c>
       <c r="F503" s="20"/>
       <c r="G503" s="13">
@@ -16576,7 +16576,7 @@
       <c r="D504" s="39"/>
       <c r="E504" s="13">
         <f t="shared" si="7"/>
-        <v>-57.564000000000078</v>
+        <v>14.504000000000005</v>
       </c>
       <c r="F504" s="20"/>
       <c r="G504" s="13">
@@ -16600,7 +16600,7 @@
       <c r="D505" s="39"/>
       <c r="E505" s="13">
         <f t="shared" si="7"/>
-        <v>-56.314000000000078</v>
+        <v>15.754000000000005</v>
       </c>
       <c r="F505" s="20"/>
       <c r="G505" s="13">
@@ -16624,7 +16624,7 @@
       <c r="D506" s="39"/>
       <c r="E506" s="13">
         <f t="shared" si="7"/>
-        <v>-55.064000000000078</v>
+        <v>17.004000000000005</v>
       </c>
       <c r="F506" s="20"/>
       <c r="G506" s="13">
@@ -16648,7 +16648,7 @@
       <c r="D507" s="39"/>
       <c r="E507" s="13">
         <f t="shared" si="7"/>
-        <v>-53.814000000000078</v>
+        <v>18.254000000000005</v>
       </c>
       <c r="F507" s="20"/>
       <c r="G507" s="13">
@@ -16672,7 +16672,7 @@
       <c r="D508" s="39"/>
       <c r="E508" s="13">
         <f t="shared" si="7"/>
-        <v>-52.564000000000078</v>
+        <v>19.504000000000005</v>
       </c>
       <c r="F508" s="20"/>
       <c r="G508" s="13">
@@ -16696,7 +16696,7 @@
       <c r="D509" s="39"/>
       <c r="E509" s="13">
         <f t="shared" si="7"/>
-        <v>-51.314000000000078</v>
+        <v>20.754000000000005</v>
       </c>
       <c r="F509" s="20"/>
       <c r="G509" s="13">
@@ -16720,7 +16720,7 @@
       <c r="D510" s="39"/>
       <c r="E510" s="13">
         <f t="shared" si="7"/>
-        <v>-50.064000000000078</v>
+        <v>22.004000000000005</v>
       </c>
       <c r="F510" s="20"/>
       <c r="G510" s="13">
@@ -16748,7 +16748,7 @@
       </c>
       <c r="E511" s="13">
         <f t="shared" si="7"/>
-        <v>-53.814000000000078</v>
+        <v>18.254000000000005</v>
       </c>
       <c r="F511" s="20"/>
       <c r="G511" s="13">
@@ -16769,7 +16769,7 @@
       <c r="D512" s="39"/>
       <c r="E512" s="13">
         <f t="shared" si="7"/>
-        <v>-53.814000000000078</v>
+        <v>18.254000000000005</v>
       </c>
       <c r="F512" s="20"/>
       <c r="G512" s="13" t="str">
@@ -16793,7 +16793,7 @@
       <c r="D513" s="39"/>
       <c r="E513" s="13">
         <f t="shared" si="7"/>
-        <v>-52.564000000000078</v>
+        <v>19.504000000000005</v>
       </c>
       <c r="F513" s="20"/>
       <c r="G513" s="13">
@@ -16816,7 +16816,7 @@
       <c r="D514" s="39"/>
       <c r="E514" s="13">
         <f t="shared" si="7"/>
-        <v>-51.314000000000078</v>
+        <v>20.754000000000005</v>
       </c>
       <c r="F514" s="20"/>
       <c r="G514" s="13">
@@ -16839,7 +16839,7 @@
       <c r="D515" s="39"/>
       <c r="E515" s="13">
         <f t="shared" si="7"/>
-        <v>-50.064000000000078</v>
+        <v>22.004000000000005</v>
       </c>
       <c r="F515" s="20"/>
       <c r="G515" s="13">
@@ -16862,7 +16862,7 @@
       <c r="D516" s="39"/>
       <c r="E516" s="13">
         <f t="shared" si="7"/>
-        <v>-48.814000000000078</v>
+        <v>23.254000000000005</v>
       </c>
       <c r="F516" s="20"/>
       <c r="G516" s="13">
@@ -16887,7 +16887,7 @@
       <c r="D517" s="39"/>
       <c r="E517" s="13">
         <f t="shared" si="7"/>
-        <v>-47.564000000000078</v>
+        <v>24.504000000000005</v>
       </c>
       <c r="F517" s="20"/>
       <c r="G517" s="13">
@@ -16908,16 +16908,18 @@
         <v>45078</v>
       </c>
       <c r="B518" s="20"/>
-      <c r="C518" s="13"/>
+      <c r="C518" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D518" s="39"/>
       <c r="E518" s="13">
         <f t="shared" si="7"/>
-        <v>-47.564000000000078</v>
+        <v>25.754000000000005</v>
       </c>
       <c r="F518" s="20"/>
-      <c r="G518" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G518" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H518" s="39"/>
       <c r="I518" s="9"/>
@@ -16929,16 +16931,18 @@
         <v>45108</v>
       </c>
       <c r="B519" s="20"/>
-      <c r="C519" s="13"/>
+      <c r="C519" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D519" s="39"/>
       <c r="E519" s="13">
         <f t="shared" si="7"/>
-        <v>-47.564000000000078</v>
+        <v>27.004000000000005</v>
       </c>
       <c r="F519" s="20"/>
-      <c r="G519" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G519" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H519" s="39"/>
       <c r="I519" s="9"/>
@@ -16950,16 +16954,18 @@
         <v>45139</v>
       </c>
       <c r="B520" s="20"/>
-      <c r="C520" s="13"/>
+      <c r="C520" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D520" s="39"/>
       <c r="E520" s="13">
         <f t="shared" si="7"/>
-        <v>-47.564000000000078</v>
+        <v>28.254000000000005</v>
       </c>
       <c r="F520" s="20"/>
-      <c r="G520" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G520" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H520" s="39"/>
       <c r="I520" s="9"/>
@@ -16971,16 +16977,18 @@
         <v>45170</v>
       </c>
       <c r="B521" s="20"/>
-      <c r="C521" s="13"/>
+      <c r="C521" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D521" s="39"/>
       <c r="E521" s="13">
         <f t="shared" si="7"/>
-        <v>-47.564000000000078</v>
+        <v>29.504000000000005</v>
       </c>
       <c r="F521" s="20"/>
-      <c r="G521" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G521" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H521" s="39"/>
       <c r="I521" s="9"/>
@@ -16992,16 +17000,18 @@
         <v>45200</v>
       </c>
       <c r="B522" s="20"/>
-      <c r="C522" s="13"/>
+      <c r="C522" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D522" s="39"/>
       <c r="E522" s="13">
         <f t="shared" si="7"/>
-        <v>-47.564000000000078</v>
+        <v>30.754000000000005</v>
       </c>
       <c r="F522" s="20"/>
-      <c r="G522" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G522" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H522" s="39"/>
       <c r="I522" s="9"/>
@@ -17013,16 +17023,18 @@
         <v>45231</v>
       </c>
       <c r="B523" s="20"/>
-      <c r="C523" s="13"/>
+      <c r="C523" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D523" s="39"/>
       <c r="E523" s="13">
         <f t="shared" si="7"/>
-        <v>-47.564000000000078</v>
+        <v>32.004000000000005</v>
       </c>
       <c r="F523" s="20"/>
-      <c r="G523" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G523" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H523" s="39"/>
       <c r="I523" s="9"/>
@@ -17036,16 +17048,20 @@
       <c r="B524" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C524" s="13"/>
-      <c r="D524" s="39"/>
+      <c r="C524" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D524" s="39">
+        <v>5</v>
+      </c>
       <c r="E524" s="13">
         <f t="shared" si="7"/>
-        <v>-47.564000000000078</v>
+        <v>28.254000000000005</v>
       </c>
       <c r="F524" s="20"/>
-      <c r="G524" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G524" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H524" s="39"/>
       <c r="I524" s="9"/>
@@ -17061,7 +17077,7 @@
       <c r="D525" s="39"/>
       <c r="E525" s="13">
         <f t="shared" ref="E525:E529" si="9">SUM(C525,E524)-D525</f>
-        <v>-47.564000000000078</v>
+        <v>28.254000000000005</v>
       </c>
       <c r="F525" s="20"/>
       <c r="G525" s="13" t="str">
@@ -17078,16 +17094,18 @@
         <v>45292</v>
       </c>
       <c r="B526" s="20"/>
-      <c r="C526" s="13"/>
+      <c r="C526" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D526" s="39"/>
       <c r="E526" s="13">
         <f t="shared" si="9"/>
-        <v>-47.564000000000078</v>
+        <v>29.504000000000005</v>
       </c>
       <c r="F526" s="20"/>
-      <c r="G526" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G526" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H526" s="39"/>
       <c r="I526" s="9"/>
@@ -17099,16 +17117,18 @@
         <v>45323</v>
       </c>
       <c r="B527" s="20"/>
-      <c r="C527" s="13"/>
+      <c r="C527" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D527" s="39"/>
       <c r="E527" s="13">
         <f t="shared" si="9"/>
-        <v>-47.564000000000078</v>
+        <v>30.754000000000005</v>
       </c>
       <c r="F527" s="20"/>
-      <c r="G527" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G527" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H527" s="39"/>
       <c r="I527" s="9"/>
@@ -17120,16 +17140,18 @@
         <v>45352</v>
       </c>
       <c r="B528" s="20"/>
-      <c r="C528" s="13"/>
+      <c r="C528" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D528" s="39"/>
       <c r="E528" s="13">
         <f t="shared" si="9"/>
-        <v>-47.564000000000078</v>
+        <v>32.004000000000005</v>
       </c>
       <c r="F528" s="20"/>
-      <c r="G528" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G528" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H528" s="39"/>
       <c r="I528" s="9"/>
@@ -17138,19 +17160,21 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
-        <v>45383</v>
+        <v>45398</v>
       </c>
       <c r="B529" s="20"/>
-      <c r="C529" s="13"/>
+      <c r="C529" s="13">
+        <v>0.70800000000000007</v>
+      </c>
       <c r="D529" s="39"/>
       <c r="E529" s="13">
         <f t="shared" si="9"/>
-        <v>-47.564000000000078</v>
+        <v>32.712000000000003</v>
       </c>
       <c r="F529" s="20"/>
-      <c r="G529" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G529" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.70800000000000007</v>
       </c>
       <c r="H529" s="39"/>
       <c r="I529" s="9"/>
@@ -17468,7 +17492,7 @@
       <c r="D549" s="43"/>
       <c r="E549" s="9"/>
       <c r="F549" s="15"/>
-      <c r="G549" s="42" t="str">
+      <c r="G549" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -17595,22 +17619,22 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" s="45">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>0.625</v>
+        <v>0.70800000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
